--- a/Документы/02_Ezhenedelny_otchet_GZ_2019_1.xlsx
+++ b/Документы/02_Ezhenedelny_otchet_GZ_2019_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Отчет о выполнении государственного задания в 2019 году</t>
   </si>
@@ -47,37 +47,28 @@
     <t>Процент</t>
   </si>
   <si>
-    <t>indicator1</t>
-  </si>
-  <si>
-    <t>category1</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>Что то полезное</t>
+  </si>
+  <si>
+    <t>2019-10-15</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>2019-10-16</t>
+  </si>
+  <si>
+    <t>Итого:</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>category2</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>Итого:</t>
-  </si>
-  <si>
-    <t>indicator2</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -85,13 +76,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="PT Astra Serif"/>
+      <b val="1"/>
+      <sz val="11"/>
+      <vertAlign val="baseline"/>
+    </font>
+    <font>
+      <name val="PT Astra Serif"/>
+      <sz val="11"/>
+      <vertAlign val="baseline"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,12 +112,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -413,328 +431,284 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="26.71"/>
+    <col customWidth="1" max="2" min="2" width="16.57"/>
+    <col customWidth="1" max="3" min="3" width="17.71"/>
+    <col customWidth="1" max="4" min="4" width="48.57"/>
+    <col customWidth="1" max="5" min="5" width="38.71"/>
+    <col customWidth="1" max="6" min="6" width="14.71"/>
+    <col customWidth="1" max="7" min="7" width="13.71"/>
+    <col customWidth="1" max="8" min="8" width="13.71"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>123</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F4" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>123</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" t="s">
+      <c r="F5" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>123</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>123</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>123</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>123</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>123</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="C5" t="s">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="20">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B13:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B23:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
